--- a/Code/Results/Cases/Case_4_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8043878870764161</v>
+        <v>0.3667877784032498</v>
       </c>
       <c r="C2">
-        <v>0.1012500632240574</v>
+        <v>0.02367520258751199</v>
       </c>
       <c r="D2">
-        <v>0.1944578284397238</v>
+        <v>0.07767967227921702</v>
       </c>
       <c r="E2">
-        <v>0.3345055197946465</v>
+        <v>0.1459357177735754</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.060712808912996</v>
+        <v>2.132390262886673</v>
       </c>
       <c r="H2">
-        <v>1.724181741723129</v>
+        <v>1.679317761607024</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8104297514357768</v>
+        <v>0.31311324384248</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5727467904914434</v>
+        <v>0.240240026183244</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6928606389319043</v>
+        <v>0.3408732639094296</v>
       </c>
       <c r="C3">
-        <v>0.08826239893750909</v>
+        <v>0.02051039519560049</v>
       </c>
       <c r="D3">
-        <v>0.1680569292619936</v>
+        <v>0.07057444233954868</v>
       </c>
       <c r="E3">
-        <v>0.2897427442497289</v>
+        <v>0.1341661088457755</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.76491981031063</v>
+        <v>2.048427997283454</v>
       </c>
       <c r="H3">
-        <v>1.58898379806817</v>
+        <v>1.642811589689131</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6969579544575311</v>
+        <v>0.2866063564770513</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4934388725777836</v>
+        <v>0.220465433772965</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6254898718387096</v>
+        <v>0.3252719707324445</v>
       </c>
       <c r="C4">
-        <v>0.0803994910502297</v>
+        <v>0.01857294867172499</v>
       </c>
       <c r="D4">
-        <v>0.1520985734563425</v>
+        <v>0.06625089970906117</v>
       </c>
       <c r="E4">
-        <v>0.2628185279213824</v>
+        <v>0.1270160166652659</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.5869384940072</v>
+        <v>1.997412846125798</v>
       </c>
       <c r="H4">
-        <v>1.507868159605692</v>
+        <v>1.620797317247025</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6283823926664667</v>
+        <v>0.2706029756565584</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.445644904913685</v>
+        <v>0.208486487690223</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5982769184440713</v>
+        <v>0.3189920283556944</v>
       </c>
       <c r="C5">
-        <v>0.07721778859573192</v>
+        <v>0.01778476173407739</v>
       </c>
       <c r="D5">
-        <v>0.1456503091175421</v>
+        <v>0.06449875169529662</v>
       </c>
       <c r="E5">
-        <v>0.2519690077355676</v>
+        <v>0.1241212093996609</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.515219043674335</v>
+        <v>1.976757533310689</v>
       </c>
       <c r="H5">
-        <v>1.475240297446845</v>
+        <v>1.611926454105117</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6006733065602532</v>
+        <v>0.2641494200058361</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4263645134112508</v>
+        <v>0.2036454466496522</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5937717605089006</v>
+        <v>0.3179539330385239</v>
       </c>
       <c r="C6">
-        <v>0.07669067441842259</v>
+        <v>0.01765396153638932</v>
       </c>
       <c r="D6">
-        <v>0.1445826604544038</v>
+        <v>0.06420839365326003</v>
       </c>
       <c r="E6">
-        <v>0.2501743265057286</v>
+        <v>0.1236416618208409</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.503356046587072</v>
+        <v>1.973335770027063</v>
       </c>
       <c r="H6">
-        <v>1.469846906296937</v>
+        <v>1.610459483763606</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5960853870067098</v>
+        <v>0.2630819036488106</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4231740109279514</v>
+        <v>0.2028440273033212</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6251219390474887</v>
+        <v>0.3251869630043416</v>
       </c>
       <c r="C7">
-        <v>0.08035649741773909</v>
+        <v>0.01856231363255034</v>
       </c>
       <c r="D7">
-        <v>0.1520113983388569</v>
+        <v>0.06622723035981437</v>
       </c>
       <c r="E7">
-        <v>0.2626717356886985</v>
+        <v>0.1269769001241485</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.585968116377444</v>
+        <v>1.997133741705085</v>
       </c>
       <c r="H7">
-        <v>1.507426460867492</v>
+        <v>1.620677277090493</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6280077928434054</v>
+        <v>0.2705156661806001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4453841277344779</v>
+        <v>0.2084210364099803</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7656800309115681</v>
+        <v>0.3577878410586948</v>
       </c>
       <c r="C8">
-        <v>0.09674525931825428</v>
+        <v>0.02258271477725771</v>
       </c>
       <c r="D8">
-        <v>0.1852972179351298</v>
+        <v>0.07522161126298954</v>
       </c>
       <c r="E8">
-        <v>0.3189433370095287</v>
+        <v>0.1418614819390811</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.957902645250726</v>
+        <v>2.103327468388699</v>
       </c>
       <c r="H8">
-        <v>1.677140865427418</v>
+        <v>1.66664688961157</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7710521139695601</v>
+        <v>0.3039169527487786</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5451950728778456</v>
+        <v>0.2333876964512456</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.051961071103648</v>
+        <v>0.424199050078812</v>
       </c>
       <c r="C9">
-        <v>0.130047829743603</v>
+        <v>0.03051773150187387</v>
       </c>
       <c r="D9">
-        <v>0.2529894069627971</v>
+        <v>0.09317529509334577</v>
       </c>
       <c r="E9">
-        <v>0.4346676889097409</v>
+        <v>0.1716731532543534</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.721347810418138</v>
+        <v>2.315921432497959</v>
       </c>
       <c r="H9">
-        <v>2.027456945673862</v>
+        <v>1.760005516646601</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.062247053986994</v>
+        <v>0.3715982677624936</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7496084682241175</v>
+        <v>0.2836613153215524</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.271677886939585</v>
+        <v>0.4745357777787262</v>
       </c>
       <c r="C10">
-        <v>0.1556627631225496</v>
+        <v>0.03638664051641172</v>
       </c>
       <c r="D10">
-        <v>0.3048487245758196</v>
+        <v>0.1065673761956845</v>
       </c>
       <c r="E10">
-        <v>0.5244231824875172</v>
+        <v>0.1939801696838046</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.311136573695535</v>
+        <v>2.47489119893055</v>
       </c>
       <c r="H10">
-        <v>2.299321895605829</v>
+        <v>1.830608210099342</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.285796189313942</v>
+        <v>0.4226922950312542</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.907479243304472</v>
+        <v>0.3214341703158183</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.374410486390332</v>
+        <v>0.4977779857120765</v>
       </c>
       <c r="C11">
-        <v>0.1676781959311455</v>
+        <v>0.03906680272125129</v>
       </c>
       <c r="D11">
-        <v>0.3290679412656914</v>
+        <v>0.1127055835790571</v>
       </c>
       <c r="E11">
-        <v>0.5666583950174626</v>
+        <v>0.2042214864370564</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.587782499978118</v>
+        <v>2.547841897648709</v>
       </c>
       <c r="H11">
-        <v>2.427117235088303</v>
+        <v>1.863176235010314</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.390373399811153</v>
+        <v>0.4462422845816434</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9815839481745741</v>
+        <v>0.3388077596958752</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.413783173138881</v>
+        <v>0.50662912835773</v>
       </c>
       <c r="C12">
-        <v>0.1722912850979128</v>
+        <v>0.04008333455182367</v>
       </c>
       <c r="D12">
-        <v>0.338345132196963</v>
+        <v>0.1150367272933437</v>
       </c>
       <c r="E12">
-        <v>0.5828899371002052</v>
+        <v>0.2081134874537582</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.69393757111277</v>
+        <v>2.575559626781114</v>
       </c>
       <c r="H12">
-        <v>2.476195081147068</v>
+        <v>1.875574505776171</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.430464421916071</v>
+        <v>0.455204816858128</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.010033631009335</v>
+        <v>0.3454146595781538</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.405281444232145</v>
+        <v>0.5047206542542142</v>
       </c>
       <c r="C13">
-        <v>0.171294777716227</v>
+        <v>0.03986433255639099</v>
       </c>
       <c r="D13">
-        <v>0.3363421448077162</v>
+        <v>0.1145343723332672</v>
       </c>
       <c r="E13">
-        <v>0.5793829754884428</v>
+        <v>0.2072746542908277</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.671009760149843</v>
+        <v>2.569585960719394</v>
       </c>
       <c r="H13">
-        <v>2.465593261913966</v>
+        <v>1.872901393712027</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.421807012532042</v>
+        <v>0.4532725806135147</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.003888214747455</v>
+        <v>0.3439904966232561</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.377639847558925</v>
+        <v>0.4985051737629647</v>
       </c>
       <c r="C14">
-        <v>0.1680563851271586</v>
+        <v>0.03915040038413053</v>
       </c>
       <c r="D14">
-        <v>0.3298289629874915</v>
+        <v>0.1128972324970476</v>
       </c>
       <c r="E14">
-        <v>0.5679887811376858</v>
+        <v>0.2045414043395439</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.59648677629184</v>
+        <v>2.550120380986698</v>
       </c>
       <c r="H14">
-        <v>2.431140614319133</v>
+        <v>1.864194932217288</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.393661428575399</v>
+        <v>0.4469787394627929</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9839163837167177</v>
+        <v>0.3393507512997402</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.360772016817066</v>
+        <v>0.4947045125863099</v>
       </c>
       <c r="C15">
-        <v>0.1660813429009238</v>
+        <v>0.03871330996524591</v>
       </c>
       <c r="D15">
-        <v>0.325853736734615</v>
+        <v>0.1118953178623485</v>
       </c>
       <c r="E15">
-        <v>0.5610416491686863</v>
+        <v>0.2028690224117682</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.551027193817333</v>
+        <v>2.538209296162449</v>
       </c>
       <c r="H15">
-        <v>2.410129432829876</v>
+        <v>1.858870519262155</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.37648764233063</v>
+        <v>0.4431294116181164</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9717354436578702</v>
+        <v>0.3365124215373356</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265025844563638</v>
+        <v>0.4730237954822201</v>
       </c>
       <c r="C16">
-        <v>0.1548857309334011</v>
+        <v>0.03621170459348377</v>
       </c>
       <c r="D16">
-        <v>0.3032798707606617</v>
+        <v>0.1061671666764141</v>
       </c>
       <c r="E16">
-        <v>0.5216942505115085</v>
+        <v>0.1933127922801177</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.293241214624516</v>
+        <v>2.470136607492833</v>
       </c>
       <c r="H16">
-        <v>2.291060713715041</v>
+        <v>1.828488936747362</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.279026066545384</v>
+        <v>0.4211594698125225</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9026872286534697</v>
+        <v>0.320302641960609</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.207048424504478</v>
+        <v>0.4598117007436429</v>
       </c>
       <c r="C17">
-        <v>0.1481178842413158</v>
+        <v>0.03467979199517401</v>
       </c>
       <c r="D17">
-        <v>0.2896029252100476</v>
+        <v>0.1026650129315385</v>
       </c>
       <c r="E17">
-        <v>0.4979398779431605</v>
+        <v>0.1874746168412216</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.13736733664669</v>
+        <v>2.428539901398352</v>
       </c>
       <c r="H17">
-        <v>2.219133625843227</v>
+        <v>1.809966689989835</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.220025736077019</v>
+        <v>0.4077606254582804</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.860954004883169</v>
+        <v>0.3104076202022128</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.173958563212153</v>
+        <v>0.4522447875399109</v>
       </c>
       <c r="C18">
-        <v>0.1442586397476617</v>
+        <v>0.03379964470114771</v>
       </c>
       <c r="D18">
-        <v>0.2817943970917298</v>
+        <v>0.1006549974917021</v>
       </c>
       <c r="E18">
-        <v>0.4844068243658413</v>
+        <v>0.1841254547256526</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.048485591917682</v>
+        <v>2.404674205013293</v>
       </c>
       <c r="H18">
-        <v>2.178145001416794</v>
+        <v>1.79935554594033</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.186356697320065</v>
+        <v>0.4000828355744659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8371616284990466</v>
+        <v>0.304734168425604</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.162797087768183</v>
+        <v>0.4496883025109071</v>
       </c>
       <c r="C19">
-        <v>0.1429574007012775</v>
+        <v>0.03350180456995133</v>
       </c>
       <c r="D19">
-        <v>0.2791600958982627</v>
+        <v>0.09997518125024385</v>
       </c>
       <c r="E19">
-        <v>0.4798460438000944</v>
+        <v>0.1829929869344937</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.018518929731556</v>
+        <v>2.396603881993741</v>
       </c>
       <c r="H19">
-        <v>2.16432993920742</v>
+        <v>1.795770049920691</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.175000550419412</v>
+        <v>0.3974882111684508</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8291405894183441</v>
+        <v>0.3028162948550914</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.213193119216669</v>
+        <v>0.4612148015318382</v>
       </c>
       <c r="C20">
-        <v>0.1488347976194717</v>
+        <v>0.03484276560925537</v>
       </c>
       <c r="D20">
-        <v>0.2910527405066574</v>
+        <v>0.1030373741548942</v>
       </c>
       <c r="E20">
-        <v>0.5004548887031603</v>
+        <v>0.1880951870362253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.153879060212404</v>
+        <v>2.432961758626959</v>
       </c>
       <c r="H20">
-        <v>2.226750229434884</v>
+        <v>1.811934025525971</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.226278336356359</v>
+        <v>0.4091839636301415</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8653742897588543</v>
+        <v>0.3114591056542437</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.385745495039743</v>
+        <v>0.5003294557297409</v>
       </c>
       <c r="C21">
-        <v>0.1690057726581102</v>
+        <v>0.0393600548248827</v>
       </c>
       <c r="D21">
-        <v>0.3317390347296651</v>
+        <v>0.1133779163964164</v>
       </c>
       <c r="E21">
-        <v>0.5713287629885428</v>
+        <v>0.2053438477218066</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.618336443220301</v>
+        <v>2.555835359701405</v>
       </c>
       <c r="H21">
-        <v>2.441240826891942</v>
+        <v>1.866750448772336</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.401914525416601</v>
+        <v>0.4488261769560324</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9897715620759655</v>
+        <v>0.3407127957812435</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.501297542774466</v>
+        <v>0.5261837363079565</v>
       </c>
       <c r="C22">
-        <v>0.1825626703697623</v>
+        <v>0.04232182147421781</v>
       </c>
       <c r="D22">
-        <v>0.3589557960732037</v>
+        <v>0.1201753842332636</v>
       </c>
       <c r="E22">
-        <v>0.6190563938014293</v>
+        <v>0.2166976634415647</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.93012741545175</v>
+        <v>2.6366825211947</v>
       </c>
       <c r="H22">
-        <v>2.585463861296773</v>
+        <v>1.902958061991171</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.519600615697101</v>
+        <v>0.4749952241034521</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.073366075716052</v>
+        <v>0.3599946256903621</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.439345455599835</v>
+        <v>0.5123581002487754</v>
       </c>
       <c r="C23">
-        <v>0.175288878537458</v>
+        <v>0.0407401648546255</v>
       </c>
       <c r="D23">
-        <v>0.3443667702680955</v>
+        <v>0.1165438122802556</v>
       </c>
       <c r="E23">
-        <v>0.5934413025752576</v>
+        <v>0.2106304045214529</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.76289376077699</v>
+        <v>2.593482718267239</v>
       </c>
       <c r="H23">
-        <v>2.508086201500248</v>
+        <v>1.883598204465557</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.456496739995373</v>
+        <v>0.4610042987095824</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.028518742021753</v>
+        <v>0.3496884817764752</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.210414353733256</v>
+        <v>0.4605803696891542</v>
       </c>
       <c r="C24">
-        <v>0.1485105832068427</v>
+        <v>0.03476908347411722</v>
       </c>
       <c r="D24">
-        <v>0.2903971103141316</v>
+        <v>0.1028690190050128</v>
       </c>
       <c r="E24">
-        <v>0.4993174698452236</v>
+        <v>0.1878146045970652</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.146411843690345</v>
+        <v>2.430962485081864</v>
       </c>
       <c r="H24">
-        <v>2.223305638399808</v>
+        <v>1.811044476229767</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.223450759408138</v>
+        <v>0.4085403934150804</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8633752584517111</v>
+        <v>0.310983681378751</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9730945193502691</v>
+        <v>0.4059641835170282</v>
       </c>
       <c r="C25">
-        <v>0.1208718439217336</v>
+        <v>0.02836482077566416</v>
       </c>
       <c r="D25">
-        <v>0.2343547788848497</v>
+        <v>0.08828361845544919</v>
       </c>
       <c r="E25">
-        <v>0.402645383911036</v>
+        <v>0.1635390799977046</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.510381284275667</v>
+        <v>2.257930617892811</v>
       </c>
       <c r="H25">
-        <v>1.930443303280072</v>
+        <v>1.734400094424387</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9820281715041119</v>
+        <v>0.3530511736886695</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6931485326651057</v>
+        <v>0.2699166198410694</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3667877784032498</v>
+        <v>0.8043878870763024</v>
       </c>
       <c r="C2">
-        <v>0.02367520258751199</v>
+        <v>0.1012500632238158</v>
       </c>
       <c r="D2">
-        <v>0.07767967227921702</v>
+        <v>0.1944578284398517</v>
       </c>
       <c r="E2">
-        <v>0.1459357177735754</v>
+        <v>0.3345055197946891</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.132390262886673</v>
+        <v>3.060712808913024</v>
       </c>
       <c r="H2">
-        <v>1.679317761607024</v>
+        <v>1.724181741723072</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.31311324384248</v>
+        <v>0.8104297514358052</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.240240026183244</v>
+        <v>0.5727467904914505</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3408732639094296</v>
+        <v>0.692860638931819</v>
       </c>
       <c r="C3">
-        <v>0.02051039519560049</v>
+        <v>0.08826239893726751</v>
       </c>
       <c r="D3">
-        <v>0.07057444233954868</v>
+        <v>0.1680569292618941</v>
       </c>
       <c r="E3">
-        <v>0.1341661088457755</v>
+        <v>0.2897427442497644</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.048427997283454</v>
+        <v>2.764919810310715</v>
       </c>
       <c r="H3">
-        <v>1.642811589689131</v>
+        <v>1.588983798068142</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2866063564770513</v>
+        <v>0.6969579544574884</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.220465433772965</v>
+        <v>0.4934388725778192</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3252719707324445</v>
+        <v>0.6254898718386244</v>
       </c>
       <c r="C4">
-        <v>0.01857294867172499</v>
+        <v>0.08039949105025812</v>
       </c>
       <c r="D4">
-        <v>0.06625089970906117</v>
+        <v>0.1520985734565841</v>
       </c>
       <c r="E4">
-        <v>0.1270160166652659</v>
+        <v>0.2628185279213682</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.997412846125798</v>
+        <v>2.586938494007256</v>
       </c>
       <c r="H4">
-        <v>1.620797317247025</v>
+        <v>1.507868159605692</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2706029756565584</v>
+        <v>0.6283823926664382</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.208486487690223</v>
+        <v>0.4456449049136779</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3189920283556944</v>
+        <v>0.5982769184440428</v>
       </c>
       <c r="C5">
-        <v>0.01778476173407739</v>
+        <v>0.07721778859551165</v>
       </c>
       <c r="D5">
-        <v>0.06449875169529662</v>
+        <v>0.1456503091175563</v>
       </c>
       <c r="E5">
-        <v>0.1241212093996609</v>
+        <v>0.2519690077355534</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.976757533310689</v>
+        <v>2.515219043674335</v>
       </c>
       <c r="H5">
-        <v>1.611926454105117</v>
+        <v>1.475240297446703</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2641494200058361</v>
+        <v>0.6006733065601395</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2036454466496522</v>
+        <v>0.4263645134112508</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3179539330385239</v>
+        <v>0.5937717605089574</v>
       </c>
       <c r="C6">
-        <v>0.01765396153638932</v>
+        <v>0.07669067441840838</v>
       </c>
       <c r="D6">
-        <v>0.06420839365326003</v>
+        <v>0.1445826604542759</v>
       </c>
       <c r="E6">
-        <v>0.1236416618208409</v>
+        <v>0.2501743265057144</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.973335770027063</v>
+        <v>2.503356046587072</v>
       </c>
       <c r="H6">
-        <v>1.610459483763606</v>
+        <v>1.469846906296937</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2630819036488106</v>
+        <v>0.5960853870066387</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2028440273033212</v>
+        <v>0.4231740109279514</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3251869630043416</v>
+        <v>0.6251219390476876</v>
       </c>
       <c r="C7">
-        <v>0.01856231363255034</v>
+        <v>0.08035649741751882</v>
       </c>
       <c r="D7">
-        <v>0.06622723035981437</v>
+        <v>0.1520113983387716</v>
       </c>
       <c r="E7">
-        <v>0.1269769001241485</v>
+        <v>0.2626717356887269</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.997133741705085</v>
+        <v>2.585968116377387</v>
       </c>
       <c r="H7">
-        <v>1.620677277090493</v>
+        <v>1.507426460867521</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2705156661806001</v>
+        <v>0.628007792843448</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2084210364099803</v>
+        <v>0.445384127734485</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3577878410586948</v>
+        <v>0.7656800309116534</v>
       </c>
       <c r="C8">
-        <v>0.02258271477725771</v>
+        <v>0.09674525931825428</v>
       </c>
       <c r="D8">
-        <v>0.07522161126298954</v>
+        <v>0.1852972179350161</v>
       </c>
       <c r="E8">
-        <v>0.1418614819390811</v>
+        <v>0.3189433370095642</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.103327468388699</v>
+        <v>2.95790264525084</v>
       </c>
       <c r="H8">
-        <v>1.66664688961157</v>
+        <v>1.677140865427418</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3039169527487786</v>
+        <v>0.7710521139695459</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2333876964512456</v>
+        <v>0.5451950728778243</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.424199050078812</v>
+        <v>1.051961071103676</v>
       </c>
       <c r="C9">
-        <v>0.03051773150187387</v>
+        <v>0.130047829743333</v>
       </c>
       <c r="D9">
-        <v>0.09317529509334577</v>
+        <v>0.2529894069627971</v>
       </c>
       <c r="E9">
-        <v>0.1716731532543534</v>
+        <v>0.4346676889097338</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.315921432497959</v>
+        <v>3.721347810418109</v>
       </c>
       <c r="H9">
-        <v>1.760005516646601</v>
+        <v>2.027456945673748</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3715982677624936</v>
+        <v>1.062247053987051</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2836613153215524</v>
+        <v>0.7496084682241246</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4745357777787262</v>
+        <v>1.271677886939443</v>
       </c>
       <c r="C10">
-        <v>0.03638664051641172</v>
+        <v>0.1556627631228906</v>
       </c>
       <c r="D10">
-        <v>0.1065673761956845</v>
+        <v>0.3048487245757343</v>
       </c>
       <c r="E10">
-        <v>0.1939801696838046</v>
+        <v>0.5244231824875385</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.47489119893055</v>
+        <v>4.311136573695535</v>
       </c>
       <c r="H10">
-        <v>1.830608210099342</v>
+        <v>2.299321895605857</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4226922950312542</v>
+        <v>1.285796189313999</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3214341703158183</v>
+        <v>0.9074792433044649</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4977779857120765</v>
+        <v>1.37441048639036</v>
       </c>
       <c r="C11">
-        <v>0.03906680272125129</v>
+        <v>0.1676781959311739</v>
       </c>
       <c r="D11">
-        <v>0.1127055835790571</v>
+        <v>0.3290679412657482</v>
       </c>
       <c r="E11">
-        <v>0.2042214864370564</v>
+        <v>0.5666583950174342</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.547841897648709</v>
+        <v>4.587782499978005</v>
       </c>
       <c r="H11">
-        <v>1.863176235010314</v>
+        <v>2.42711723508819</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4462422845816434</v>
+        <v>1.390373399811239</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3388077596958752</v>
+        <v>0.9815839481745456</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.50662912835773</v>
+        <v>1.413783173138967</v>
       </c>
       <c r="C12">
-        <v>0.04008333455182367</v>
+        <v>0.172291285097586</v>
       </c>
       <c r="D12">
-        <v>0.1150367272933437</v>
+        <v>0.3383451321969346</v>
       </c>
       <c r="E12">
-        <v>0.2081134874537582</v>
+        <v>0.582889937100191</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.575559626781114</v>
+        <v>4.69393757111294</v>
       </c>
       <c r="H12">
-        <v>1.875574505776171</v>
+        <v>2.476195081147068</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.455204816858128</v>
+        <v>1.430464421916213</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3454146595781538</v>
+        <v>1.010033631009343</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5047206542542142</v>
+        <v>1.405281444232173</v>
       </c>
       <c r="C13">
-        <v>0.03986433255639099</v>
+        <v>0.1712947777161276</v>
       </c>
       <c r="D13">
-        <v>0.1145343723332672</v>
+        <v>0.3363421448078299</v>
       </c>
       <c r="E13">
-        <v>0.2072746542908277</v>
+        <v>0.5793829754883788</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.569585960719394</v>
+        <v>4.671009760149843</v>
       </c>
       <c r="H13">
-        <v>1.872901393712027</v>
+        <v>2.465593261913966</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4532725806135147</v>
+        <v>1.421807012531929</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3439904966232561</v>
+        <v>1.003888214747477</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4985051737629647</v>
+        <v>1.377639847558839</v>
       </c>
       <c r="C14">
-        <v>0.03915040038413053</v>
+        <v>0.1680563851276275</v>
       </c>
       <c r="D14">
-        <v>0.1128972324970476</v>
+        <v>0.3298289629875484</v>
       </c>
       <c r="E14">
-        <v>0.2045414043395439</v>
+        <v>0.5679887811376574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.550120380986698</v>
+        <v>4.59648677629184</v>
       </c>
       <c r="H14">
-        <v>1.864194932217288</v>
+        <v>2.43114061431919</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4469787394627929</v>
+        <v>1.393661428575285</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3393507512997402</v>
+        <v>0.9839163837167177</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4947045125863099</v>
+        <v>1.360772016816867</v>
       </c>
       <c r="C15">
-        <v>0.03871330996524591</v>
+        <v>0.1660813429003554</v>
       </c>
       <c r="D15">
-        <v>0.1118953178623485</v>
+        <v>0.3258537367347287</v>
       </c>
       <c r="E15">
-        <v>0.2028690224117682</v>
+        <v>0.5610416491686294</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.538209296162449</v>
+        <v>4.55102719381739</v>
       </c>
       <c r="H15">
-        <v>1.858870519262155</v>
+        <v>2.410129432830047</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4431294116181164</v>
+        <v>1.376487642330517</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3365124215373356</v>
+        <v>0.9717354436578418</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4730237954822201</v>
+        <v>1.265025844563752</v>
       </c>
       <c r="C16">
-        <v>0.03621170459348377</v>
+        <v>0.1548857309333869</v>
       </c>
       <c r="D16">
-        <v>0.1061671666764141</v>
+        <v>0.3032798707606048</v>
       </c>
       <c r="E16">
-        <v>0.1933127922801177</v>
+        <v>0.5216942505115654</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.470136607492833</v>
+        <v>4.293241214624516</v>
       </c>
       <c r="H16">
-        <v>1.828488936747362</v>
+        <v>2.291060713715012</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4211594698125225</v>
+        <v>1.279026066545129</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.320302641960609</v>
+        <v>0.9026872286534697</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4598117007436429</v>
+        <v>1.207048424504563</v>
       </c>
       <c r="C17">
-        <v>0.03467979199517401</v>
+        <v>0.1481178842413158</v>
       </c>
       <c r="D17">
-        <v>0.1026650129315385</v>
+        <v>0.2896029252101897</v>
       </c>
       <c r="E17">
-        <v>0.1874746168412216</v>
+        <v>0.4979398779431889</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.428539901398352</v>
+        <v>4.137367336646662</v>
       </c>
       <c r="H17">
-        <v>1.809966689989835</v>
+        <v>2.219133625843227</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4077606254582804</v>
+        <v>1.220025736076934</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3104076202022128</v>
+        <v>0.8609540048831761</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4522447875399109</v>
+        <v>1.173958563212238</v>
       </c>
       <c r="C18">
-        <v>0.03379964470114771</v>
+        <v>0.1442586397478891</v>
       </c>
       <c r="D18">
-        <v>0.1006549974917021</v>
+        <v>0.2817943970918861</v>
       </c>
       <c r="E18">
-        <v>0.1841254547256526</v>
+        <v>0.4844068243658342</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.404674205013293</v>
+        <v>4.048485591917654</v>
       </c>
       <c r="H18">
-        <v>1.79935554594033</v>
+        <v>2.178145001416794</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4000828355744659</v>
+        <v>1.186356697319951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.304734168425604</v>
+        <v>0.8371616284990466</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4496883025109071</v>
+        <v>1.162797087768297</v>
       </c>
       <c r="C19">
-        <v>0.03350180456995133</v>
+        <v>0.1429574007014907</v>
       </c>
       <c r="D19">
-        <v>0.09997518125024385</v>
+        <v>0.2791600958982201</v>
       </c>
       <c r="E19">
-        <v>0.1829929869344937</v>
+        <v>0.4798460438000802</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.396603881993741</v>
+        <v>4.018518929731584</v>
       </c>
       <c r="H19">
-        <v>1.795770049920691</v>
+        <v>2.164329939207391</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3974882111684508</v>
+        <v>1.175000550419242</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3028162948550914</v>
+        <v>0.829140589418337</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4612148015318382</v>
+        <v>1.213193119216783</v>
       </c>
       <c r="C20">
-        <v>0.03484276560925537</v>
+        <v>0.1488347976194149</v>
       </c>
       <c r="D20">
-        <v>0.1030373741548942</v>
+        <v>0.2910527405069132</v>
       </c>
       <c r="E20">
-        <v>0.1880951870362253</v>
+        <v>0.5004548887031675</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.432961758626959</v>
+        <v>4.153879060212375</v>
       </c>
       <c r="H20">
-        <v>1.811934025525971</v>
+        <v>2.226750229435055</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4091839636301415</v>
+        <v>1.226278336356415</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3114591056542437</v>
+        <v>0.8653742897588259</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5003294557297409</v>
+        <v>1.385745495039714</v>
       </c>
       <c r="C21">
-        <v>0.0393600548248827</v>
+        <v>0.169005772657826</v>
       </c>
       <c r="D21">
-        <v>0.1133779163964164</v>
+        <v>0.3317390347300773</v>
       </c>
       <c r="E21">
-        <v>0.2053438477218066</v>
+        <v>0.5713287629885855</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.555835359701405</v>
+        <v>4.618336443220187</v>
       </c>
       <c r="H21">
-        <v>1.866750448772336</v>
+        <v>2.441240826892169</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4488261769560324</v>
+        <v>1.401914525416714</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3407127957812435</v>
+        <v>0.9897715620759442</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5261837363079565</v>
+        <v>1.50129754277458</v>
       </c>
       <c r="C22">
-        <v>0.04232182147421781</v>
+        <v>0.1825626703692365</v>
       </c>
       <c r="D22">
-        <v>0.1201753842332636</v>
+        <v>0.3589557960732037</v>
       </c>
       <c r="E22">
-        <v>0.2166976634415647</v>
+        <v>0.6190563938014293</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.6366825211947</v>
+        <v>4.930127415451693</v>
       </c>
       <c r="H22">
-        <v>1.902958061991171</v>
+        <v>2.585463861296944</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4749952241034521</v>
+        <v>1.519600615697044</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3599946256903621</v>
+        <v>1.073366075716052</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5123581002487754</v>
+        <v>1.439345455599522</v>
       </c>
       <c r="C23">
-        <v>0.0407401648546255</v>
+        <v>0.1752888785376712</v>
       </c>
       <c r="D23">
-        <v>0.1165438122802556</v>
+        <v>0.3443667702679107</v>
       </c>
       <c r="E23">
-        <v>0.2106304045214529</v>
+        <v>0.5934413025752718</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.593482718267239</v>
+        <v>4.762893760776819</v>
       </c>
       <c r="H23">
-        <v>1.883598204465557</v>
+        <v>2.508086201500419</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4610042987095824</v>
+        <v>1.456496739995487</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3496884817764752</v>
+        <v>1.028518742021724</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4605803696891542</v>
+        <v>1.210414353733341</v>
       </c>
       <c r="C24">
-        <v>0.03476908347411722</v>
+        <v>0.1485105832066154</v>
       </c>
       <c r="D24">
-        <v>0.1028690190050128</v>
+        <v>0.2903971103141316</v>
       </c>
       <c r="E24">
-        <v>0.1878146045970652</v>
+        <v>0.4993174698451881</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.430962485081864</v>
+        <v>4.146411843690316</v>
       </c>
       <c r="H24">
-        <v>1.811044476229767</v>
+        <v>2.22330563839995</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4085403934150804</v>
+        <v>1.223450759408195</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.310983681378751</v>
+        <v>0.8633752584517111</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4059641835170282</v>
+        <v>0.9730945193500986</v>
       </c>
       <c r="C25">
-        <v>0.02836482077566416</v>
+        <v>0.1208718439212504</v>
       </c>
       <c r="D25">
-        <v>0.08828361845544919</v>
+        <v>0.2343547788848781</v>
       </c>
       <c r="E25">
-        <v>0.1635390799977046</v>
+        <v>0.4026453839110076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.257930617892811</v>
+        <v>3.510381284275724</v>
       </c>
       <c r="H25">
-        <v>1.734400094424387</v>
+        <v>1.930443303279958</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3530511736886695</v>
+        <v>0.9820281715041119</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2699166198410694</v>
+        <v>0.6931485326650844</v>
       </c>
       <c r="N25">
         <v>0</v>
